--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2839.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2839.xlsx
@@ -354,7 +354,7 @@
         <v>2.440639419560784</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362051438667366</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2839.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2839.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17121751198811</v>
+        <v>1.165025115013123</v>
       </c>
       <c r="B1">
-        <v>2.440639419560784</v>
+        <v>2.210657119750977</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.506183624267578</v>
       </c>
       <c r="D1">
-        <v>2.362051438667366</v>
+        <v>2.673350811004639</v>
       </c>
       <c r="E1">
-        <v>1.23591981545757</v>
+        <v>1.233798027038574</v>
       </c>
     </row>
   </sheetData>
